--- a/data/Data User.xlsx
+++ b/data/Data User.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project\WorkingMemoryCapacity analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Project/WorkingMemoryCapacity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2821D8C8-AC4C-4EC9-8177-1D20D89000B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7125" xr2:uid="{14D1CA5A-5C73-47D4-B55D-10EB1DF25718}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="7120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -99,12 +104,21 @@
   </si>
   <si>
     <t>adam_22@apps.ipb.ac.id</t>
+  </si>
+  <si>
+    <t>Ryan Azrian</t>
+  </si>
+  <si>
+    <t>Banda Aceh, 31 Maret 1997</t>
+  </si>
+  <si>
+    <t>azrian.ryan@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,32 +489,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE16F765-E339-46C9-967A-26A5FAAD1FFE}">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="29.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2"/>
+    <col min="4" max="4" width="29.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="21" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="16.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="24.83203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -588,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -629,15 +643,60 @@
         <v>10</v>
       </c>
       <c r="N3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>123456</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>121</v>
+      </c>
+      <c r="K4" s="2">
+        <v>170</v>
+      </c>
+      <c r="L4" s="2">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{946C6251-1428-4B85-B94E-621AD775D624}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{DA417706-D162-4A5F-98F8-6E4059AEFA56}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>